--- a/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
+++ b/Excel_Exercice01_MiseEnFormeEtGraphique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="123820"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Cours\Outils de gestion\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C94A2AC-C92E-4805-9B96-49BC6EAE6B55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{174DC16F-F261-4431-9925-BF1DD2CF28DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Résultat attendu" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,15 @@
     <sheet name="Objectifs" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'Données brutes'!$B$18:$B$20</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'Données brutes'!$C$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'Données brutes'!$C$18:$C$20</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'Données brutes'!$D$17</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'Données brutes'!$D$18:$D$20</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'Données brutes'!$E$17</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'Données brutes'!$E$18:$E$20</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'Données brutes'!$F$17</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">'Données brutes'!$F$18:$F$20</definedName>
     <definedName name="Dépenses">'Données brutes'!$B$17:$G$21</definedName>
     <definedName name="Net">'Données brutes'!$B$24:$G$25</definedName>
     <definedName name="Ventes">'Données brutes'!$B$8:$G$14</definedName>
@@ -1007,12 +1016,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
@@ -1020,6 +1023,12 @@
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2687,7 +2696,7 @@
           </a:effectLst>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -5859,20 +5868,20 @@
       <selection activeCell="B2" sqref="B2:Q2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="4" customWidth="1"/>
-    <col min="2" max="7" width="11.5703125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="1.7109375" style="4" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="4"/>
-    <col min="16" max="16" width="9.140625" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="4"/>
-    <col min="18" max="18" width="1.7109375" style="4" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="1.6640625" style="4" customWidth="1"/>
+    <col min="2" max="7" width="11.5546875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="1.6640625" style="4" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" style="4"/>
+    <col min="16" max="16" width="9.109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="4"/>
+    <col min="18" max="18" width="1.6640625" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:17" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="57" t="s">
         <v>17</v>
       </c>
@@ -5928,7 +5937,7 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -5944,7 +5953,7 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="2:17" s="6" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" s="6" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="48" t="s">
         <v>7</v>
       </c>
@@ -6048,7 +6057,7 @@
         <v>8951.24</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="17" t="s">
         <v>12</v>
       </c>
@@ -6069,7 +6078,7 @@
         <v>8962.11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>0</v>
       </c>
@@ -6094,7 +6103,7 @@
         <v>103807.6</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:17" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -6110,7 +6119,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="47" t="s">
         <v>2</v>
       </c>
@@ -6172,7 +6181,7 @@
         <v>28167.059999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="26" t="s">
         <v>16</v>
       </c>
@@ -6193,7 +6202,7 @@
         <v>24795.49</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="29" t="s">
         <v>0</v>
       </c>
@@ -6218,7 +6227,7 @@
         <v>103562.64</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -6234,7 +6243,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="2:7" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="49" t="s">
         <v>1</v>
       </c>
@@ -6254,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
         <v>0</v>
       </c>
@@ -6301,65 +6310,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:Q28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
-    <col min="2" max="8" width="9.140625" style="1" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="9.140625" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="8" width="9.109375" style="1" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="9.109375" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="1.9" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="59" t="s">
+    <row r="1" spans="2:17" ht="1.8" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="61"/>
+      <c r="Q2" s="61"/>
     </row>
-    <row r="3" spans="2:17" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="60" t="s">
+    <row r="3" spans="2:17" ht="2.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
+      <c r="M4" s="62"/>
+      <c r="N4" s="62"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="62"/>
+      <c r="Q4" s="62"/>
     </row>
-    <row r="5" spans="2:17" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:17" ht="2.4500000000000002" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:17" ht="2.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="2:17" ht="2.4" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -6379,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -6399,7 +6408,7 @@
         <v>18105.46</v>
       </c>
     </row>
-    <row r="10" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -6419,7 +6428,7 @@
         <v>27164.67</v>
       </c>
     </row>
-    <row r="11" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -6439,7 +6448,7 @@
         <v>40624.120000000003</v>
       </c>
     </row>
-    <row r="12" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
@@ -6459,7 +6468,7 @@
         <v>8951.24</v>
       </c>
     </row>
-    <row r="13" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>12</v>
       </c>
@@ -6479,7 +6488,7 @@
         <v>8962.11</v>
       </c>
     </row>
-    <row r="14" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -6499,9 +6508,9 @@
         <v>103807.6</v>
       </c>
     </row>
-    <row r="15" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:17" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:17" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -6521,7 +6530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
@@ -6541,7 +6550,7 @@
         <v>50600.09</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>15</v>
       </c>
@@ -6561,7 +6570,7 @@
         <v>28167.059999999998</v>
       </c>
     </row>
-    <row r="20" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>16</v>
       </c>
@@ -6581,7 +6590,7 @@
         <v>24795.49</v>
       </c>
     </row>
-    <row r="21" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -6601,9 +6610,9 @@
         <v>103562.64</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>1</v>
       </c>
@@ -6623,7 +6632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>0</v>
       </c>
@@ -6643,9 +6652,9 @@
         <v>244.96</v>
       </c>
     </row>
-    <row r="26" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:7" ht="10.15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="2:7" ht="10.199999999999999" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:Q2"/>
@@ -6665,27 +6674,27 @@
       <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.7109375" style="50" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="50" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="50" customWidth="1"/>
+    <col min="1" max="1" width="1.6640625" style="50" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" style="50" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="50" customWidth="1"/>
     <col min="4" max="4" width="100" style="50" customWidth="1"/>
-    <col min="5" max="5" width="1.7109375" style="50" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="50"/>
+    <col min="5" max="5" width="1.6640625" style="50" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="62" t="s">
+    <row r="2" spans="2:4" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="2:4" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D4" s="52" t="s">
@@ -6693,25 +6702,25 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C5" s="61"/>
+      <c r="C5" s="59"/>
       <c r="D5" s="53" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C6" s="61"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="54" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C7" s="61"/>
+      <c r="C7" s="59"/>
       <c r="D7" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C8" s="61"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="55" t="s">
         <v>27</v>
       </c>
@@ -6720,7 +6729,7 @@
       <c r="C9" s="51"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="59" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="52" t="s">
@@ -6728,19 +6737,19 @@
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="61"/>
+      <c r="C11" s="59"/>
       <c r="D11" s="53" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C12" s="61"/>
+      <c r="C12" s="59"/>
       <c r="D12" s="54" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="61"/>
+      <c r="C13" s="59"/>
       <c r="D13" s="56" t="s">
         <v>23</v>
       </c>
